--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H2">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I2">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J2">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N2">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O2">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P2">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q2">
-        <v>62.04244630893842</v>
+        <v>73.00069445712533</v>
       </c>
       <c r="R2">
-        <v>62.04244630893842</v>
+        <v>657.006250114128</v>
       </c>
       <c r="S2">
-        <v>0.02120858747601348</v>
+        <v>0.0238248460146011</v>
       </c>
       <c r="T2">
-        <v>0.02120858747601348</v>
+        <v>0.02382484601460111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H3">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I3">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J3">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N3">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O3">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P3">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q3">
-        <v>398.9349736372639</v>
+        <v>425.8333336803307</v>
       </c>
       <c r="R3">
-        <v>398.9349736372639</v>
+        <v>3832.500003122976</v>
       </c>
       <c r="S3">
-        <v>0.1363719161474794</v>
+        <v>0.1389769464285948</v>
       </c>
       <c r="T3">
-        <v>0.1363719161474794</v>
+        <v>0.1389769464285948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H4">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I4">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J4">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N4">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O4">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P4">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q4">
-        <v>163.3649508080061</v>
+        <v>176.4113170321014</v>
       </c>
       <c r="R4">
-        <v>163.3649508080061</v>
+        <v>1587.701853288912</v>
       </c>
       <c r="S4">
-        <v>0.05584466854310793</v>
+        <v>0.05757441754189441</v>
       </c>
       <c r="T4">
-        <v>0.05584466854310793</v>
+        <v>0.05757441754189441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H5">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I5">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J5">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N5">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O5">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P5">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q5">
-        <v>162.9769321091111</v>
+        <v>182.5716207214637</v>
       </c>
       <c r="R5">
-        <v>162.9769321091111</v>
+        <v>1643.144586493173</v>
       </c>
       <c r="S5">
-        <v>0.05571202824590132</v>
+        <v>0.0595849228924762</v>
       </c>
       <c r="T5">
-        <v>0.05571202824590132</v>
+        <v>0.05958492289247622</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H6">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I6">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J6">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N6">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O6">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P6">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q6">
-        <v>1047.947042427684</v>
+        <v>1064.990990365208</v>
       </c>
       <c r="R6">
-        <v>1047.947042427684</v>
+        <v>9584.918913286867</v>
       </c>
       <c r="S6">
-        <v>0.3582301769483117</v>
+        <v>0.3475754106324395</v>
       </c>
       <c r="T6">
-        <v>0.3582301769483117</v>
+        <v>0.3475754106324396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H7">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I7">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J7">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N7">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O7">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P7">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q7">
-        <v>429.1371485300196</v>
+        <v>441.1971735840798</v>
       </c>
       <c r="R7">
-        <v>429.1371485300196</v>
+        <v>3970.774562256718</v>
       </c>
       <c r="S7">
-        <v>0.1466962264589925</v>
+        <v>0.1439911606442525</v>
       </c>
       <c r="T7">
-        <v>0.1466962264589925</v>
+        <v>0.1439911606442526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.9838080677957</v>
+        <v>12.35338333333333</v>
       </c>
       <c r="H8">
-        <v>11.9838080677957</v>
+        <v>37.06015</v>
       </c>
       <c r="I8">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="J8">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N8">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O8">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P8">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q8">
-        <v>65.67944440172431</v>
+        <v>75.68256238766112</v>
       </c>
       <c r="R8">
-        <v>65.67944440172431</v>
+        <v>681.14306148895</v>
       </c>
       <c r="S8">
-        <v>0.02245185876510562</v>
+        <v>0.02470011290009681</v>
       </c>
       <c r="T8">
-        <v>0.02245185876510562</v>
+        <v>0.02470011290009681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.9838080677957</v>
+        <v>12.35338333333333</v>
       </c>
       <c r="H9">
-        <v>11.9838080677957</v>
+        <v>37.06015</v>
       </c>
       <c r="I9">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="J9">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N9">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O9">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P9">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q9">
-        <v>422.3209911878852</v>
+        <v>441.4774144639889</v>
       </c>
       <c r="R9">
-        <v>422.3209911878852</v>
+        <v>3973.2967301759</v>
       </c>
       <c r="S9">
-        <v>0.1443661914935578</v>
+        <v>0.1440826213606263</v>
       </c>
       <c r="T9">
-        <v>0.1443661914935578</v>
+        <v>0.1440826213606264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.9838080677957</v>
+        <v>12.35338333333333</v>
       </c>
       <c r="H10">
-        <v>11.9838080677957</v>
+        <v>37.06015</v>
       </c>
       <c r="I10">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="J10">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N10">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O10">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P10">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q10">
-        <v>172.941588253251</v>
+        <v>182.8922396760611</v>
       </c>
       <c r="R10">
-        <v>172.941588253251</v>
+        <v>1646.03015708455</v>
       </c>
       <c r="S10">
-        <v>0.0591183459215301</v>
+        <v>0.05968956158501812</v>
       </c>
       <c r="T10">
-        <v>0.0591183459215301</v>
+        <v>0.05968956158501813</v>
       </c>
     </row>
   </sheetData>
